--- a/data/trans_dic/P78A_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P78A_2023-Habitat-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8164450122923684</v>
+        <v>0.8226551224098668</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7911200773216681</v>
+        <v>0.7867953273666504</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8196338427557777</v>
+        <v>0.8198256430520311</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9356286646410061</v>
+        <v>0.9405817675875524</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8557258417563739</v>
+        <v>0.854479990989645</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8785181245618676</v>
+        <v>0.8795674298447268</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.832791104225194</v>
+        <v>0.8327911042251939</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.7691993921408214</v>
+        <v>0.7691993921408217</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7947500672521616</v>
+        <v>0.7947500672521614</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7681208114559894</v>
+        <v>0.7770129608881244</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.730238915857748</v>
+        <v>0.7352185033295286</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7637800742781594</v>
+        <v>0.7637269122744508</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8768669298081492</v>
+        <v>0.87727379526066</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8021031624476187</v>
+        <v>0.8051069060339128</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8234289559459695</v>
+        <v>0.8245907479811229</v>
       </c>
     </row>
     <row r="10">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.8518326823359805</v>
+        <v>0.8518326823359804</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.7362120125721224</v>
+        <v>0.7362120125721225</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.7877547076393598</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7831043055027226</v>
+        <v>0.788926438085839</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6900912983892419</v>
+        <v>0.6838587986836537</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7484093950069629</v>
+        <v>0.7534420111300678</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8998923028985432</v>
+        <v>0.899528363619195</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7751780318386762</v>
+        <v>0.7742623974596473</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8237751106815512</v>
+        <v>0.8252073526839458</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.8555401005279846</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.7415677269185835</v>
+        <v>0.7415677269185834</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.7882264059235695</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8026459768508079</v>
+        <v>0.8057936287988329</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7007821410453261</v>
+        <v>0.7063373397324665</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7584172076179716</v>
+        <v>0.7581411977145385</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9018967546942096</v>
+        <v>0.9020521032912373</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.775342049563037</v>
+        <v>0.7743758691124096</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8144610847509071</v>
+        <v>0.813230583601916</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.8560439109786249</v>
+        <v>0.856043910978625</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.7649490569367212</v>
+        <v>0.7649490569367213</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8028846296166554</v>
+        <v>0.8028846296166555</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.82832889431629</v>
+        <v>0.8268864807070287</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7476017019787169</v>
+        <v>0.7450095357935357</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7868749233761859</v>
+        <v>0.7878898394284281</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8822633300594558</v>
+        <v>0.8816971427279654</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7846493198523155</v>
+        <v>0.7823568478048022</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8167774255038026</v>
+        <v>0.8186783611274269</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>262817</v>
+        <v>264816</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>360643</v>
+        <v>358672</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>637485</v>
+        <v>637634</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>301183</v>
+        <v>302777</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>390095</v>
+        <v>389527</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>683283</v>
+        <v>684099</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>323427</v>
+        <v>327171</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>457786</v>
+        <v>460908</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>800412</v>
+        <v>800357</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>369216</v>
+        <v>369388</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>502838</v>
+        <v>504721</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>862922</v>
+        <v>864140</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>301129</v>
+        <v>303367</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>329899</v>
+        <v>326919</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>645564</v>
+        <v>649906</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>346037</v>
+        <v>345897</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>370575</v>
+        <v>370137</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>710574</v>
+        <v>711809</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>371570</v>
+        <v>373027</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>468026</v>
+        <v>471737</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>857614</v>
+        <v>857302</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>417516</v>
+        <v>417588</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>517822</v>
+        <v>517177</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>920988</v>
+        <v>919596</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1317399</v>
+        <v>1315105</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1666162</v>
+        <v>1660385</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3005159</v>
+        <v>3009035</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1403178</v>
+        <v>1402278</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1748729</v>
+        <v>1743620</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>3119360</v>
+        <v>3126619</v>
       </c>
     </row>
     <row r="24">
